--- a/sd-add-new-fr-core/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-add-new-fr-core/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -8,9 +8,9 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from UsageContextType" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from TRE-R67-TypeStru" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from TRE-R04-TypeSavo" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from TRE-R288-TypePro" r:id="rId7" sheetId="5"/>
+    <sheet name="Include from TRE_R67-TypeStru" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from TRE_R04-TypeSavo" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from TRE_R288-TypePro" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T08:07:04+00:00</t>
+    <t>2024-04-03T09:10:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-add-new-fr-core/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T09:10:32+00:00</t>
+    <t>2024-04-03T10:16:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-add-new-fr-core/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T10:16:46+00:00</t>
+    <t>2024-04-03T15:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-add-new-fr-core/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T15:15:49+00:00</t>
+    <t>2024-04-03T16:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-add-new-fr-core/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T16:22:44+00:00</t>
+    <t>2024-04-03T17:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-add-new-fr-core/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T17:09:56+00:00</t>
+    <t>2024-04-04T08:25:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/sd-add-new-fr-core/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/sd-add-new-fr-core/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T08:25:00+00:00</t>
+    <t>2024-04-04T09:30:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
